--- a/public/apps/bos/excel/apps.xlsx
+++ b/public/apps/bos/excel/apps.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -70,7 +70,7 @@
     <t>:) Sudoku</t>
   </si>
   <si>
-    <t>Okänd</t>
+    <t>Låg</t>
   </si>
   <si>
     <t xml:space="preserve">With daily games at 17 difficulty levels, novices and expert players alike will appreciate :) Sudoku. Our tutorial, extensive feature set, and advanced hint system offer something for every player. The more you play, the more you will enjoy it!
@@ -104,19 +104,34 @@
     <t>https://apps.apple.com/se/app/sudoku/id286516944?uo=4</t>
   </si>
   <si>
-    <t>Spel,Underhållning,Bräde,Pussel</t>
-  </si>
-  <si>
-    <t>iPhone,iPad,Apple Watch</t>
+    <t>Spel, Underhållning, Bräde, Pussel</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Gratis</t>
+  </si>
+  <si>
+    <t>Nej</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>iPhone, iPad, Apple Watch</t>
+  </si>
+  <si>
+    <t>2021-11-19</t>
   </si>
   <si>
     <t>· NE · to device</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>@Termometer</t>
+  </si>
+  <si>
+    <t>Okänd</t>
   </si>
   <si>
     <t xml:space="preserve">Praktiskt, snabbt och noggrant: Den bästa termometern för din iPhone / iPad
@@ -157,10 +172,10 @@
     <t>https://apps.apple.com/se/app/termometer/id334634432?uo=4</t>
   </si>
   <si>
-    <t>Väder,Verktyg</t>
-  </si>
-  <si>
-    <t>iPhone,iPad</t>
+    <t>Väder, Verktyg</t>
+  </si>
+  <si>
+    <t>iPhone, iPad</t>
   </si>
   <si>
     <t>▻Sudoku</t>
@@ -189,7 +204,7 @@
     <t>https://apps.apple.com/se/app/sudoku/id366247306?uo=4</t>
   </si>
   <si>
-    <t>Spel,Bräde,Pussel,Underhållning</t>
+    <t>Spel, Bräde, Pussel, Underhållning</t>
   </si>
   <si>
     <t>¼ learn sight read music tutor</t>
@@ -224,7 +239,7 @@
     <t>https://apps.apple.com/se/app/learn-sight-read-music-tutor/id1023149335?uo=4</t>
   </si>
   <si>
-    <t>Musik,Casual,Spel</t>
+    <t>Musik, Casual, Spel</t>
   </si>
 </sst>
 </file>
@@ -668,7 +683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -687,103 +702,139 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/public/apps/bos/excel/apps.xlsx
+++ b/public/apps/bos/excel/apps.xlsx
@@ -721,7 +721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -741,7 +741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -773,7 +773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -805,7 +805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>

--- a/public/apps/bos/excel/apps.xlsx
+++ b/public/apps/bos/excel/apps.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Title</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>:) Sudoku</t>
-  </si>
-  <si>
-    <t>Låg</t>
   </si>
   <si>
     <t xml:space="preserve">With daily games at 17 difficulty levels, novices and expert players alike will appreciate :) Sudoku. Our tutorial, extensive feature set, and advanced hint system offer something for every player. The more you play, the more you will enjoy it!
@@ -129,9 +126,6 @@
   </si>
   <si>
     <t>@Termometer</t>
-  </si>
-  <si>
-    <t>Okänd</t>
   </si>
   <si>
     <t xml:space="preserve">Praktiskt, snabbt och noggrant: Den bästa termometern för din iPhone / iPad
@@ -687,154 +681,142 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
